--- a/TestCases/GLA_Testcases.xlsx
+++ b/TestCases/GLA_Testcases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
   <si>
     <t>Creer nouveau compte</t>
   </si>
@@ -372,6 +372,120 @@
   </si>
   <si>
     <t>Spécialités tab</t>
+  </si>
+  <si>
+    <t>Enseignant</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>Add a chapitre</t>
+  </si>
+  <si>
+    <t>Add a course</t>
+  </si>
+  <si>
+    <t>Delete a course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new course that is existed </t>
+  </si>
+  <si>
+    <t>Create a new course that is not 
+existed</t>
+  </si>
+  <si>
+    <t>Click to add a course</t>
+  </si>
+  <si>
+    <t>Click to valide</t>
+  </si>
+  <si>
+    <t>A form of course is shown</t>
+  </si>
+  <si>
+    <t>Input into fields</t>
+  </si>
+  <si>
+    <t>Required fields are inputed</t>
+  </si>
+  <si>
+    <t>A course is created</t>
+  </si>
+  <si>
+    <t>Click to delete a course</t>
+  </si>
+  <si>
+    <t>A popup is shown</t>
+  </si>
+  <si>
+    <t>Click OK</t>
+  </si>
+  <si>
+    <t>The course is deleted</t>
+  </si>
+  <si>
+    <t>- User has already logged in
+- Course Algorithm is create</t>
+  </si>
+  <si>
+    <t>Input into fields
+name of course is Algorithm</t>
+  </si>
+  <si>
+    <t>An error is shown: 
+Algorithm course is existed</t>
+  </si>
+  <si>
+    <t>User has already logged in
+A course is create</t>
+  </si>
+  <si>
+    <t>Click to add a chapitre for 
+this course</t>
+  </si>
+  <si>
+    <t>Upload a chapitre</t>
+  </si>
+  <si>
+    <t>A chapitre is uploaded</t>
+  </si>
+  <si>
+    <t>A chapitre is created</t>
+  </si>
+  <si>
+    <t>Click to delete a chapitre</t>
+  </si>
+  <si>
+    <t>The chapitre is deleted</t>
+  </si>
+  <si>
+    <t>Delete  a chapitre</t>
+  </si>
+  <si>
+    <t>Delete a chapitre</t>
+  </si>
+  <si>
+    <t>A course is added</t>
+  </si>
+  <si>
+    <t>Click to the course tab</t>
+  </si>
+  <si>
+    <t>Click to the institutions tab</t>
+  </si>
+  <si>
+    <t>All institutions are shown</t>
+  </si>
+  <si>
+    <t>All courses are shown</t>
+  </si>
+  <si>
+    <t>Click to the Spécialités tab</t>
+  </si>
+  <si>
+    <t>All spécialités are shown</t>
   </si>
 </sst>
 </file>
@@ -413,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,14 +547,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,16 +913,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4">
@@ -819,10 +942,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4">
         <v>2</v>
       </c>
@@ -840,10 +963,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4">
         <v>3</v>
       </c>
@@ -861,14 +984,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="4">
@@ -888,10 +1011,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4">
         <v>2</v>
       </c>
@@ -909,14 +1032,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="4">
@@ -936,10 +1059,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4">
         <v>2</v>
       </c>
@@ -957,14 +1080,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="4">
@@ -984,10 +1107,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4">
         <v>2</v>
       </c>
@@ -1005,14 +1128,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="4">
@@ -1032,10 +1155,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -1053,11 +1176,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1080,9 +1203,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>2</v>
@@ -1101,29 +1224,25 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="4">
@@ -1143,10 +1262,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4">
         <v>2</v>
       </c>
@@ -1164,29 +1283,25 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="4">
@@ -1206,10 +1321,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4">
         <v>2</v>
       </c>
@@ -1227,14 +1342,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="4">
@@ -1254,10 +1369,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4">
         <v>2</v>
       </c>
@@ -1275,14 +1390,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="4">
@@ -1302,10 +1417,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="4">
         <v>2</v>
       </c>
@@ -1323,11 +1438,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="4"/>
@@ -1348,61 +1463,49 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="4">
@@ -1422,10 +1525,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4">
         <v>2</v>
       </c>
@@ -1443,44 +1546,36 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="4">
@@ -1500,10 +1595,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4">
         <v>2</v>
       </c>
@@ -1521,16 +1616,16 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="4">
@@ -1550,61 +1645,49 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E39" s="4">
@@ -1624,10 +1707,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="4">
         <v>2</v>
       </c>
@@ -1645,10 +1728,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="4">
         <v>3</v>
       </c>
@@ -1666,10 +1749,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="4">
         <v>4</v>
       </c>
@@ -1687,10 +1770,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="4">
         <v>5</v>
       </c>
@@ -1708,16 +1791,16 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E44" s="4">
@@ -1737,10 +1820,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -1778,46 +1861,16 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="C35:C38"/>
@@ -1829,6 +1882,36 @@
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1836,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,8 +1966,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1893,13 +1976,14 @@
       <c r="C2" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="D2" s="10"/>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>93</v>
       </c>
       <c r="H2" t="s">
@@ -1910,13 +1994,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H3" t="s">
@@ -1926,79 +2014,545 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="E5">
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
+      <c r="I10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
